--- a/ExportExcel/Update User Test.xlsx
+++ b/ExportExcel/Update User Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -41,25 +41,19 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>154 ms</t>
+    <t>191 ms</t>
   </si>
   <si>
     <t>testUpdateUserIdWithInvalidCharacters</t>
   </si>
   <si>
-    <t>157 ms</t>
+    <t>174 ms</t>
   </si>
   <si>
     <t>testUpdateUserIdWithValidChange</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>652 ms</t>
-  </si>
-  <si>
-    <t>Notification message not match with expect expected [Lưu thành công!] but found [Cập nhật thành công!]</t>
+    <t>758 ms</t>
   </si>
 </sst>
 </file>
@@ -137,7 +131,7 @@
     <col min="3" max="3" width="9.52734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.08203125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.2109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="86.171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -210,14 +204,14 @@
       <c r="C4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="F4" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ExportExcel/Update User Test.xlsx
+++ b/ExportExcel/Update User Test.xlsx
@@ -41,19 +41,19 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>191 ms</t>
+    <t>178 ms</t>
   </si>
   <si>
     <t>testUpdateUserIdWithInvalidCharacters</t>
   </si>
   <si>
-    <t>174 ms</t>
+    <t>180 ms</t>
   </si>
   <si>
     <t>testUpdateUserIdWithValidChange</t>
   </si>
   <si>
-    <t>758 ms</t>
+    <t>1192 ms</t>
   </si>
 </sst>
 </file>
